--- a/TOMAS ONJALI.xlsx
+++ b/TOMAS ONJALI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="9780" firstSheet="3" activeTab="6"/>
+    <workbookView minimized="1" xWindow="240" yWindow="60" windowWidth="17235" windowHeight="9780" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="JUNE 21" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="63">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>DEC</t>
+  </si>
+  <si>
+    <t>PAID ON 14/12</t>
   </si>
 </sst>
 </file>
@@ -481,245 +484,41 @@
       <sheetName val="DECEMBER 21"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="10">
-          <cell r="G10">
-            <v>10500</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="10">
-          <cell r="D10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="10">
-          <cell r="E10">
-            <v>22000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="10">
-          <cell r="E10">
-            <v>22000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="10">
-          <cell r="E10">
-            <v>22000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="19">
-        <row r="10">
-          <cell r="F10">
-            <v>32000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="20">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="21">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-          <cell r="H10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="H11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="H12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="H13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="H14">
-            <v>0</v>
-          </cell>
-        </row>
         <row r="15">
           <cell r="H15" t="str">
             <v>DR</v>
           </cell>
         </row>
-        <row r="24">
-          <cell r="E24">
-            <v>0</v>
-          </cell>
-          <cell r="I24">
-            <v>0</v>
-          </cell>
-        </row>
       </sheetData>
-      <sheetData sheetId="23">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="25">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="26">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="27">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="28">
-        <row r="10">
-          <cell r="E10">
-            <v>27000</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
@@ -3371,7 +3170,7 @@
   <dimension ref="A2:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3938,7 +3737,7 @@
   <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K33"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4519,10 +4318,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K31"/>
+  <dimension ref="A2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4608,10 +4407,13 @@
         <f t="shared" ref="G6:G11" si="0">D6+E6+F6</f>
         <v>5020</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="10">
+        <f>340+2000</f>
+        <v>2340</v>
+      </c>
       <c r="I6" s="9">
         <f t="shared" ref="I6:I11" si="1">G6-H6</f>
-        <v>5020</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4636,10 +4438,12 @@
         <f t="shared" si="0"/>
         <v>2375</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="10">
+        <v>2000</v>
+      </c>
       <c r="I7" s="9">
         <f t="shared" si="1"/>
-        <v>2375</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4710,10 +4514,12 @@
         <f t="shared" si="0"/>
         <v>2175</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10">
+        <v>2175</v>
+      </c>
       <c r="I10" s="9">
         <f t="shared" si="1"/>
-        <v>2175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4758,7 +4564,7 @@
         <v>3045</v>
       </c>
       <c r="E12" s="9">
-        <f t="shared" si="2"/>
+        <f>SUM(E6:E11)</f>
         <v>700</v>
       </c>
       <c r="F12" s="7">
@@ -4771,11 +4577,11 @@
       </c>
       <c r="H12" s="14">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>8515</v>
       </c>
       <c r="I12" s="15">
         <f t="shared" si="2"/>
-        <v>9745</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4814,10 +4620,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
-      <c r="K15" s="37">
-        <f>E10+E11+E7</f>
-        <v>525</v>
-      </c>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
@@ -4834,7 +4637,7 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
         <v>13</v>
       </c>
@@ -4860,7 +4663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>61</v>
       </c>
@@ -4875,12 +4678,12 @@
       </c>
       <c r="G18" s="28">
         <f>H12</f>
-        <v>2000</v>
+        <v>8515</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>40</v>
       </c>
@@ -4895,7 +4698,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
@@ -4910,7 +4713,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>41</v>
       </c>
@@ -4927,7 +4730,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
         <v>17</v>
       </c>
@@ -4940,8 +4743,9 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>18</v>
       </c>
@@ -4965,7 +4769,7 @@
       </c>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>19</v>
       </c>
@@ -4982,18 +4786,27 @@
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
+      <c r="L24" s="37"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
+        <v>62</v>
+      </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="11">
+        <v>7275</v>
+      </c>
       <c r="E25" s="11"/>
-      <c r="F25" s="32"/>
+      <c r="F25" s="32" t="s">
+        <v>62</v>
+      </c>
       <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="H25" s="11">
+        <v>7275</v>
+      </c>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="31"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -5002,8 +4815,9 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="37"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -5012,12 +4826,8 @@
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="K27">
-        <f>800/4</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="29" t="s">
         <v>10</v>
@@ -5028,36 +4838,36 @@
       </c>
       <c r="D28" s="14">
         <f>SUM(D24:D27)</f>
-        <v>0</v>
+        <v>7275</v>
       </c>
       <c r="E28" s="14">
         <f>C28-D28</f>
-        <v>8859</v>
+        <v>1584</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="14">
         <f>G18+G21-H23</f>
-        <v>1114</v>
+        <v>7629</v>
       </c>
       <c r="H28" s="14">
         <f>SUM(H24:H27)</f>
-        <v>0</v>
+        <v>7275</v>
       </c>
       <c r="I28" s="14">
         <f>G28-H28</f>
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
@@ -5069,7 +4879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>23</v>
       </c>
